--- a/补习代码/指针图示.xlsx
+++ b/补习代码/指针图示.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="20420" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="20420" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arr1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>arr2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +117,10 @@
   </si>
   <si>
     <t>函数名类似与变量名，帮助记忆，不代表内存地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int arr1[5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -662,10 +662,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" thickBot="1">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -684,10 +684,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>112</v>
@@ -698,10 +698,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>12</v>
@@ -712,10 +712,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>43</v>
@@ -734,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>66</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" thickBot="1">
@@ -750,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" thickBot="1">
@@ -758,10 +758,10 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" thickBot="1">
@@ -774,7 +774,7 @@
         <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" thickBot="1">
@@ -790,17 +790,17 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14" thickBot="1">
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -847,7 +847,6 @@
       <c r="D28" s="15"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
